--- a/inst/extdata/NeoNet_atl_ELR (1).xlsx
+++ b/inst/extdata/NeoNet_atl_ELR (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\neonet\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DB8D45-F307-4CAC-86A4-F2E2D8BCA226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E395A9-F3FB-4192-95A7-BA8D5037B335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -9079,7 +9079,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B584" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1691" sqref="D1691"/>
+      <selection pane="bottomRight" activeCell="F1693" sqref="F1693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
